--- a/realme/Others/Others/Natore Retail list updated.xlsx
+++ b/realme/Others/Others/Natore Retail list updated.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCN\realme\Others\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="100">
   <si>
     <t>Store Code</t>
   </si>
@@ -318,13 +318,16 @@
   </si>
   <si>
     <t>RE Rose Telecom-Natore</t>
+  </si>
+  <si>
+    <t>Mugdho Corporation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -333,6 +336,11 @@
       <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="25"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -378,13 +386,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +412,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -706,65 +726,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="101" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.375" customWidth="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1"/>
+    <col min="6" max="6" width="23.875" hidden="1" customWidth="1"/>
     <col min="7" max="254" width="11" customWidth="1"/>
     <col min="255" max="255" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="30.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -774,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
@@ -782,7 +793,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
@@ -792,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
@@ -800,7 +811,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
@@ -810,7 +821,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
@@ -818,7 +829,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -828,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>10</v>
@@ -836,7 +847,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -846,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>10</v>
@@ -854,7 +865,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
@@ -864,7 +875,7 @@
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -872,7 +883,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -882,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>10</v>
@@ -890,7 +901,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -900,7 +911,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -908,7 +919,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -918,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -926,7 +937,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -936,51 +947,51 @@
         <v>8</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
@@ -990,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -998,7 +1009,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
@@ -1008,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>10</v>
@@ -1016,7 +1027,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1026,7 +1037,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>10</v>
@@ -1034,7 +1045,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -1044,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
@@ -1052,7 +1063,7 @@
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1062,87 +1073,87 @@
         <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="F22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
@@ -1152,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>10</v>
@@ -1160,7 +1171,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
@@ -1170,7 +1181,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>10</v>
@@ -1178,7 +1189,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
@@ -1188,7 +1199,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>10</v>
@@ -1196,7 +1207,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -1206,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>10</v>
@@ -1214,7 +1225,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -1224,87 +1235,87 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="F31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
@@ -1314,33 +1325,33 @@
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -1350,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1358,7 +1369,7 @@
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
@@ -1368,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1376,7 +1387,7 @@
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -1386,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1394,7 +1405,7 @@
     </row>
     <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -1404,33 +1415,33 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -1440,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>10</v>
@@ -1448,7 +1459,7 @@
     </row>
     <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -1458,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>10</v>
@@ -1466,7 +1477,7 @@
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
@@ -1476,7 +1487,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>10</v>
@@ -1484,7 +1495,7 @@
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
@@ -1494,7 +1505,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>10</v>
@@ -1502,7 +1513,7 @@
     </row>
     <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
@@ -1512,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
@@ -1520,7 +1531,7 @@
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1" t="s">
@@ -1530,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>10</v>
@@ -1538,7 +1549,7 @@
     </row>
     <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
@@ -1548,14 +1559,36 @@
         <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
